--- a/Arraym.xlsx
+++ b/Arraym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8EAAFA-86D1-45A5-8A9F-87431EF7CB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B4A95-ACA4-45BC-A84E-FA2A45407FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{F565CDE3-74DC-400B-88EC-3A0296CF7507}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F565CDE3-74DC-400B-88EC-3A0296CF7507}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">sample!$A$1:$B$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t/>
   </si>
@@ -297,6 +296,9 @@
   </si>
   <si>
     <t>needs to be done again with proper type , logic was correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do again </t>
   </si>
 </sst>
 </file>
@@ -719,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9237C5C-E152-4753-B487-8BF9F0F7DDB9}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -910,7 +912,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -919,7 +921,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -928,7 +930,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -940,7 +942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -949,31 +951,45 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -981,7 +997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
